--- a/8-Bugtracker.xlsx
+++ b/8-Bugtracker.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\Choucair\Capacitación\Plan_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\Choucair\Capacitación\Plan_2\Ejercicio Práctico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A50EAA-FD4A-4FE6-98E3-C88FFE06FED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A691012-A0DA-4D7D-95D9-97ADE529CA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Fecha de detección</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>Tipo</t>
-  </si>
-  <si>
-    <t>Descripción</t>
   </si>
   <si>
     <t>Impacto</t>
@@ -111,6 +108,12 @@
 - Login con rol de colaborador
 - Página de búsqueda 
 - Seleccionar la opción de filtro "Universidad Choucair/ Escuela Técnica/ Testing/ Aplicativos"</t>
+  </si>
+  <si>
+    <t>Reporte</t>
+  </si>
+  <si>
+    <t>Severidad</t>
   </si>
 </sst>
 </file>
@@ -568,16 +571,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -585,28 +588,28 @@
     <col min="7" max="7" width="16.42578125" style="3" customWidth="1"/>
     <col min="8" max="8" width="18" style="3" customWidth="1"/>
     <col min="9" max="9" width="32.5703125" style="3" customWidth="1"/>
-    <col min="10" max="11" width="15.28515625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="3"/>
+    <col min="10" max="12" width="15.28515625" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -615,130 +618,136 @@
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="2"/>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:17" s="8" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="8" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="G2" s="6">
         <v>44971</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" s="7">
         <v>2</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="7"/>
+      <c r="L2" s="7">
         <v>2</v>
       </c>
-      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:17" s="8" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="8" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="G3" s="6">
         <v>44971</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3" s="7">
         <v>1</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="7"/>
+      <c r="L3" s="7">
         <v>2</v>
       </c>
-      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:17" s="8" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="8" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="G4" s="6">
         <v>44971</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" s="7">
         <v>1</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="7"/>
+      <c r="L4" s="7">
         <v>2</v>
       </c>
-      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/8-Bugtracker.xlsx
+++ b/8-Bugtracker.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\Choucair\Capacitación\Plan_2\Ejercicio Práctico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A691012-A0DA-4D7D-95D9-97ADE529CA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1D8AC9-1177-4B7F-87C9-C19BB2B4B412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INCIDENTES" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>Fecha de detección</t>
   </si>
@@ -43,12 +56,6 @@
     <t>Fecha solución</t>
   </si>
   <si>
-    <t>Componente/Campo/Reporte/Documento</t>
-  </si>
-  <si>
-    <t>Consultar cursos existentes</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -64,9 +71,6 @@
     <t>El tiempo de respuesta para la visualización de los cursos supera el tiempo límite</t>
   </si>
   <si>
-    <t>Es posible realizar la operación de búsqueda con información vacia en el campo.</t>
-  </si>
-  <si>
     <t>No se muestra un mensaje que evidencie la existencia de cursos.</t>
   </si>
   <si>
@@ -83,9 +87,6 @@
   </si>
   <si>
     <t>Error</t>
-  </si>
-  <si>
-    <t>Asignado</t>
   </si>
   <si>
     <t>Pasos</t>
@@ -100,20 +101,90 @@
   <si>
     <t>- Ingresar a la URL de Choucair Academy
 - Login con rol de colaborador
-- Página de búsqueda
-- Ingresar una palabra coincidente que permita desplegar una lista de cursos de acuerdo con la necesidad del usuario.</t>
+- Página de búsqueda 
+- Seleccionar la opción de filtro "Universidad Choucair/ Escuela Técnica/ Testing/ Aplicativos"</t>
+  </si>
+  <si>
+    <t>Reporte</t>
+  </si>
+  <si>
+    <t>Severidad</t>
+  </si>
+  <si>
+    <t>Camila Jiménez</t>
+  </si>
+  <si>
+    <t>Comentario</t>
+  </si>
+  <si>
+    <t>Sugerencia</t>
+  </si>
+  <si>
+    <t>A pesar de que no se genera ningún error, es más intuito presentar al usuario un mensaje indicando que no hay cursos disponbiles que dejar la pantalla en blanco.</t>
+  </si>
+  <si>
+    <t>IS-004</t>
+  </si>
+  <si>
+    <t>Es posible navegar a la página de búsqueda con información vacia en el campo de texto.</t>
+  </si>
+  <si>
+    <t>Se sugiere búsqueda con indicios de palabras, teniendo en cuenta que el usuario podría no conocer toda la oferta que se ofrece y prefiera utilizar indicios que le permitan llegar a su necesidad.</t>
+  </si>
+  <si>
+    <t>Andrés López</t>
   </si>
   <si>
     <t>- Ingresar a la URL de Choucair Academy
 - Login con rol de colaborador
-- Página de búsqueda 
-- Seleccionar la opción de filtro "Universidad Choucair/ Escuela Técnica/ Testing/ Aplicativos"</t>
-  </si>
-  <si>
-    <t>Reporte</t>
-  </si>
-  <si>
-    <t>Severidad</t>
+- Página de búsqueda
+- No ingresar valores.
+- Presionar tecla Enter o clic en "Ir"</t>
+  </si>
+  <si>
+    <t>No se asocian indicios de palabras con cursos coincidentes.</t>
+  </si>
+  <si>
+    <t>- Ingresar a la URL de Choucair Academy
+- Login con rol de colaborador
+- Página de búsqueda
+- Ingresar un indicio de palabra coincidente que permita desplegar una lista de cursos de acuerdo con la necesidad del usuario.</t>
+  </si>
+  <si>
+    <t>Área</t>
+  </si>
+  <si>
+    <t>Sub Área</t>
+  </si>
+  <si>
+    <t>HU001- Consultar Cursos Existentes</t>
+  </si>
+  <si>
+    <t>Visualización de cursos</t>
+  </si>
+  <si>
+    <t>Campo de búsqueda</t>
+  </si>
+  <si>
+    <t>Responsable</t>
+  </si>
+  <si>
+    <t>Carlos Conde</t>
+  </si>
+  <si>
+    <t>Felipe Zuluaga</t>
+  </si>
+  <si>
+    <t>Activo</t>
+  </si>
+  <si>
+    <t>Resolviendo</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t>Fecha Asignación</t>
   </si>
 </sst>
 </file>
@@ -201,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -218,9 +289,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -231,6 +299,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -571,186 +657,297 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18" style="3" customWidth="1"/>
-    <col min="9" max="9" width="32.5703125" style="3" customWidth="1"/>
-    <col min="10" max="12" width="15.28515625" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="3"/>
+    <col min="3" max="3" width="27.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="9" customWidth="1"/>
+    <col min="9" max="10" width="16.42578125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="3"/>
+    <col min="12" max="12" width="32.5703125" style="3" customWidth="1"/>
+    <col min="13" max="15" width="15.28515625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" style="9" customWidth="1"/>
+    <col min="17" max="17" width="23" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+    </row>
+    <row r="2" spans="1:21" s="7" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="15">
+        <v>44971</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="6">
+        <v>2</v>
+      </c>
+      <c r="N2" s="6">
+        <v>2</v>
+      </c>
+      <c r="O2" s="6">
+        <v>2</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:21" s="7" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="15">
+        <v>44971</v>
+      </c>
+      <c r="J3" s="15">
+        <v>44972</v>
+      </c>
+      <c r="K3" s="15">
+        <v>44974</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="6">
+        <v>1</v>
+      </c>
+      <c r="N3" s="6">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6">
+        <v>2</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="1:21" s="7" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="15">
+        <v>44971</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="6">
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
+        <v>1</v>
+      </c>
+      <c r="O4" s="6">
+        <v>2</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="5" spans="1:21" ht="102" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="15">
+        <v>44973</v>
+      </c>
+      <c r="J5" s="15">
+        <v>44974</v>
+      </c>
+      <c r="K5" s="15">
+        <v>44977</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="6">
+        <v>1</v>
+      </c>
+      <c r="N5" s="6">
+        <v>1</v>
+      </c>
+      <c r="O5" s="6">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:18" s="8" customFormat="1" ht="102" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="6">
-        <v>44971</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="7">
-        <v>2</v>
-      </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7">
-        <v>2</v>
-      </c>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:18" s="8" customFormat="1" ht="102" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="6">
-        <v>44971</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="7">
-        <v>1</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7">
-        <v>2</v>
-      </c>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:18" s="8" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="6">
-        <v>44971</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="7">
-        <v>1</v>
-      </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7">
-        <v>2</v>
-      </c>
-      <c r="M4" s="4"/>
+      <c r="P5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:O5" xr:uid="{0DF6771E-52BC-4702-AFBE-53BB5A9B2D18}">
+      <formula1>"1,2,3,4"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5" xr:uid="{D94F3A58-1002-4C7D-8AD6-2B26D2018340}">
+      <formula1>"Error,Sugerencia,Hallazgo,Consideración"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P5" xr:uid="{65B676CD-7CD6-46FF-968A-7C2D644B2BA6}">
+      <formula1>"Nuevo,Activo,Resolviendo,Cerrado,Re-Abierto"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>

--- a/8-Bugtracker.xlsx
+++ b/8-Bugtracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\Choucair\Capacitación\Plan_2\Ejercicio Práctico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1D8AC9-1177-4B7F-87C9-C19BB2B4B412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4730A1A4-5F37-43A8-8B01-5758F2E86756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INCIDENTES" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t>Fecha de detección</t>
   </si>
@@ -185,6 +185,28 @@
   </si>
   <si>
     <t>Fecha Asignación</t>
+  </si>
+  <si>
+    <t>IS-005</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Hay una restricción de límite de intentos permitidos para ingresar</t>
+  </si>
+  <si>
+    <t>Hallazgo</t>
+  </si>
+  <si>
+    <t>Seguridad</t>
+  </si>
+  <si>
+    <t>- Ingresar a la URL de Choucair Academy
+- Login con rol de colaborador</t>
+  </si>
+  <si>
+    <t>Al hacer algunos intentos de ingreso, se puede constatar que no hay límite de intentos permitidos para ingresar a la plataforma, esto tiene consecuencias graves a nivel de seguridad</t>
   </si>
 </sst>
 </file>
@@ -657,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -935,16 +957,63 @@
         <v>29</v>
       </c>
     </row>
+    <row r="6" spans="1:21" ht="102" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="15">
+        <v>44972</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="6">
+        <v>4</v>
+      </c>
+      <c r="N6" s="6">
+        <v>4</v>
+      </c>
+      <c r="O6" s="6">
+        <v>4</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:O5" xr:uid="{0DF6771E-52BC-4702-AFBE-53BB5A9B2D18}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:O6" xr:uid="{0DF6771E-52BC-4702-AFBE-53BB5A9B2D18}">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5" xr:uid="{D94F3A58-1002-4C7D-8AD6-2B26D2018340}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{D94F3A58-1002-4C7D-8AD6-2B26D2018340}">
       <formula1>"Error,Sugerencia,Hallazgo,Consideración"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P5" xr:uid="{65B676CD-7CD6-46FF-968A-7C2D644B2BA6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P6" xr:uid="{65B676CD-7CD6-46FF-968A-7C2D644B2BA6}">
       <formula1>"Nuevo,Activo,Resolviendo,Cerrado,Re-Abierto"</formula1>
     </dataValidation>
   </dataValidations>

--- a/8-Bugtracker.xlsx
+++ b/8-Bugtracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\Choucair\Capacitación\Plan_2\Ejercicio Práctico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4730A1A4-5F37-43A8-8B01-5758F2E86756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0EF18B-B652-4F39-98A0-524161F4B0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -681,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>

--- a/8-Bugtracker.xlsx
+++ b/8-Bugtracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\Choucair\Capacitación\Plan_2\Ejercicio Práctico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0EF18B-B652-4F39-98A0-524161F4B0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A309518-0373-4170-832A-41609D11A77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -681,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
